--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230303.4040066601</v>
+        <v>-232767.4674503655</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>121.1059660434825</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>117.4137306658384</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>218.6353519137648</v>
+        <v>86.66867554195382</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>284.7781523974826</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>245.8056267012315</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>35.71645049826206</v>
       </c>
       <c r="V7" t="n">
-        <v>138.8346023448377</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>208.5804814250767</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>23.79925355567503</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>83.23259662571527</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>183.8024440391914</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922658</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>247.6310136071132</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>117.6579322793608</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>201.4105577836251</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>66.09841665934279</v>
       </c>
     </row>
     <row r="23">
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>18.7084378797731</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>143.2091541404073</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>70.58974991479246</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>195.2208281702714</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>108.3613954702483</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.76045942438991</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1186.041037313967</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>817.078520373555</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3096.715425190973</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2765.652537847403</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2765.652537847403</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310553</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X4" t="n">
-        <v>624.6477645191717</v>
+        <v>784.7792908317705</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>563.9867116882403</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1243.280836875046</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C5" t="n">
-        <v>874.3183199346347</v>
+        <v>1509.206671818182</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1150.940973211432</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>765.1527206131875</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>354.16681582358</v>
       </c>
       <c r="G5" t="n">
         <v>66.51211643218342</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4598,19 +4598,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3077.317309789745</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2746.254422446174</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2393.48576717606</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2020.02000891498</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1629.880676939168</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.46409084602</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1669.450709932502</v>
       </c>
       <c r="V7" t="n">
-        <v>1408.124251906171</v>
+        <v>1414.766221726615</v>
       </c>
       <c r="W7" t="n">
-        <v>1408.124251906171</v>
+        <v>1125.349051689654</v>
       </c>
       <c r="X7" t="n">
-        <v>1180.134701008154</v>
+        <v>1125.349051689654</v>
       </c>
       <c r="Y7" t="n">
-        <v>959.3421218646239</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2144.895377947847</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,7 +4814,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923659</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.034709923659</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>2144.895377947847</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>880.8839692864689</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>711.947786358562</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>561.8311469462262</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.426274415171</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>975.7672400321496</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="Y10" t="n">
-        <v>754.9746608886195</v>
+        <v>880.8839692864689</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>874.868625753635</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>705.9324428257281</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133924</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098309992</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330889</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2395.078540748843</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1505.299220625422</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1505.299220625422</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1277.309669727405</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1056.517090583875</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5270,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,16 +5534,16 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,16 +6221,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6242,10 +6242,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171305</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892237</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768879</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>414.4022433768879</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>414.4022433768879</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>247.2061440917678</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473703</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647281</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368213</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4479471244855</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420924</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949679</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,13 +7801,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.308775558570233e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>261.6278756199981</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>83.97999014465289</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>133.5814412930636</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>51.29058878979916</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>4.506629716714826</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922698</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>63.36835372228377</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182132</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>84.77391660561901</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>152.486236692752</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>74.19629618688091</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>69.7049629314314</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>30.48882721876572</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>71.47058471168899</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>129.6605885985413</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1020119.034142554</v>
+        <v>1020119.034142553</v>
       </c>
     </row>
     <row r="3">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028983</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="F2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="G2" t="n">
         <v>302679.9748837523</v>
-      </c>
-      <c r="G2" t="n">
-        <v>302679.9748837521</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="J2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="K2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="M2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="K2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="L2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302679.9748837521</v>
       </c>
       <c r="N2" t="n">
         <v>302679.9748837523</v>
@@ -26353,7 +26353,7 @@
         <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991063</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363163</v>
+        <v>19427.71799363176</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42308.05352563444</v>
+        <v>42308.05352563422</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184273</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1204265.773211721</v>
+        <v>-1204486.904525697</v>
       </c>
       <c r="C6" t="n">
         <v>107162.8802545189</v>
       </c>
       <c r="D6" t="n">
-        <v>107162.8802545186</v>
+        <v>107162.880254519</v>
       </c>
       <c r="E6" t="n">
-        <v>-137461.8248593528</v>
+        <v>-137496.5627847889</v>
       </c>
       <c r="F6" t="n">
-        <v>187950.6369480024</v>
+        <v>187915.8990225666</v>
       </c>
       <c r="G6" t="n">
-        <v>187950.6369480023</v>
+        <v>187915.8990225667</v>
       </c>
       <c r="H6" t="n">
-        <v>187950.6369480024</v>
+        <v>187915.8990225667</v>
       </c>
       <c r="I6" t="n">
-        <v>187950.6369480022</v>
+        <v>187915.8990225669</v>
       </c>
       <c r="J6" t="n">
-        <v>-29580.56544927513</v>
+        <v>-29615.30337471065</v>
       </c>
       <c r="K6" t="n">
-        <v>187950.6369480023</v>
+        <v>187915.8990225667</v>
       </c>
       <c r="L6" t="n">
-        <v>187950.6369480024</v>
+        <v>187915.8990225667</v>
       </c>
       <c r="M6" t="n">
-        <v>102895.6090124905</v>
+        <v>102860.8710870548</v>
       </c>
       <c r="N6" t="n">
-        <v>187950.6369480024</v>
+        <v>187915.8990225668</v>
       </c>
       <c r="O6" t="n">
-        <v>187950.6369480026</v>
+        <v>187915.899022567</v>
       </c>
       <c r="P6" t="n">
-        <v>163701.1624766227</v>
+        <v>163701.1624766228</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26796,16 +26796,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>297.9503799276089</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>297.9503799276139</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>7.074303475272359</v>
+        <v>139.0409798470833</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>126.1435732559709</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>5.189545257670432</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>250.4953877073508</v>
       </c>
       <c r="V7" t="n">
-        <v>113.3030409789903</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>156.6924103459308</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>325.441715161738</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>63.2013660208539</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>41.90721134984571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.267083570430044e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,16 +33020,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,34 +33494,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
         <v>867.8464071162563</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899105</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
         <v>632.079992146269</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
